--- a/biology/Zoologie/Barbinae/Barbinae.xlsx
+++ b/biology/Zoologie/Barbinae/Barbinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Barbinae regroupe des poissons d'eau douce faisant partie de la famille des Cyprinidae. Communément appelés « Barbeaux » ou « Barbus », les Barbinae sont originaires des eaux douces d'Europe, d'Afrique et d'Asie. Ils étaient autrefois tous réunis dans le genre Barbus, mais des travaux récents[2] ont conduit à la révision du groupe, et à l'érection d'un certain nombre de genres nouveaux. Si plusieurs de ces genres sont à présent bien établis, plusieurs d'entre eux demeurent problématiques, et font encore l'objet de travaux actuels. La monophylie des Barbinae n'est pas établie avec certitude[2]. Dans sa définition actuelle, la sous-famille des Barbinae regroupe 715 espèces, réparties en 29 genres[3] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Barbinae regroupe des poissons d'eau douce faisant partie de la famille des Cyprinidae. Communément appelés « Barbeaux » ou « Barbus », les Barbinae sont originaires des eaux douces d'Europe, d'Afrique et d'Asie. Ils étaient autrefois tous réunis dans le genre Barbus, mais des travaux récents ont conduit à la révision du groupe, et à l'érection d'un certain nombre de genres nouveaux. Si plusieurs de ces genres sont à présent bien établis, plusieurs d'entre eux demeurent problématiques, et font encore l'objet de travaux actuels. La monophylie des Barbinae n'est pas établie avec certitude. Dans sa définition actuelle, la sous-famille des Barbinae regroupe 715 espèces, réparties en 29 genres :
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après FishBase, 30 novembre 2015 :
 Acrossocheilus
